--- a/Data/MaplyDataTemplate.xlsx
+++ b/Data/MaplyDataTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\Uni\3rd Year Project\CS310Project\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\University\Year 3\CS310\CS310Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8DFD695-4902-4D6A-A24C-0D68139D3C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E49245-9108-44ED-AE31-CD2E959B2503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="17544" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4410" yWindow="4410" windowWidth="28800" windowHeight="15555" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -650,23 +650,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G57"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G57" activeCellId="14" sqref="G5 G8 G7 G9 G11 G12:G14 G16:G21 G23:G24 G25:G26 G28:G32 G34:G41 G43:G44 G47:G52 G54:G55 G57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
-    <col min="8" max="8" width="97.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="97.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -693,7 +693,7 @@
       </c>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
@@ -707,9 +707,12 @@
       <c r="F2" s="9">
         <v>-4.0153845917278499</v>
       </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
@@ -722,8 +725,11 @@
       <c r="F3" s="9">
         <v>-5.3432396000000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
@@ -736,8 +742,11 @@
       <c r="F4" s="9">
         <v>-2.49688</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
@@ -750,8 +759,11 @@
       <c r="F5" s="9">
         <v>-5.2130074000000004</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
@@ -764,8 +776,11 @@
       <c r="F6" s="9">
         <v>-4.7707430000000004</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
@@ -778,8 +793,11 @@
       <c r="F7" s="9">
         <v>-4.82109216958363</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
@@ -792,8 +810,11 @@
       <c r="F8" s="9">
         <v>-4.3346808661924303</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>15</v>
       </c>
@@ -806,8 +827,11 @@
       <c r="F9" s="9">
         <v>-4.6954648904421203</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>16</v>
       </c>
@@ -820,8 +844,11 @@
       <c r="F10" s="9">
         <v>-4.0361392778064902</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>17</v>
       </c>
@@ -834,8 +861,11 @@
       <c r="F11" s="9">
         <v>-3.7679243751494602</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>18</v>
       </c>
@@ -848,8 +878,11 @@
       <c r="F12" s="9">
         <v>-3.7679243751494602</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>19</v>
       </c>
@@ -862,8 +895,11 @@
       <c r="F13" s="9">
         <v>-3.2165872412797998</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>20</v>
       </c>
@@ -876,8 +912,11 @@
       <c r="F14" s="9">
         <v>-3.5466814656824601</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>21</v>
       </c>
@@ -890,8 +929,11 @@
       <c r="F15" s="9">
         <v>-5.5886981217063996</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>22</v>
       </c>
@@ -904,8 +946,11 @@
       <c r="F16" s="9">
         <v>-4.3681534310068502</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>23</v>
       </c>
@@ -918,8 +963,11 @@
       <c r="F17" s="9">
         <v>-3.5992929982061699</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>24</v>
       </c>
@@ -932,8 +980,11 @@
       <c r="F18" s="9">
         <v>-3.5992929982061699</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>25</v>
       </c>
@@ -946,8 +997,11 @@
       <c r="F19" s="9">
         <v>-2.9605749569700301</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>26</v>
       </c>
@@ -960,8 +1014,11 @@
       <c r="F20" s="9">
         <v>-3.5992929982061699</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>27</v>
       </c>
@@ -974,8 +1031,11 @@
       <c r="F21" s="9">
         <v>-4.9514332137722397</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>28</v>
       </c>
@@ -988,8 +1048,11 @@
       <c r="F22" s="9">
         <v>-5.6257169180013298</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>29</v>
       </c>
@@ -1002,8 +1065,11 @@
       <c r="F23" s="9">
         <v>-5.28094768528518</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>30</v>
       </c>
@@ -1016,8 +1082,11 @@
       <c r="F24" s="9">
         <v>-4.80103988897101</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>31</v>
       </c>
@@ -1030,8 +1099,11 @@
       <c r="F25" s="9">
         <v>-2.5249960222373802</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>32</v>
       </c>
@@ -1044,8 +1116,11 @@
       <c r="F26" s="9">
         <v>-3.6615459851750698</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>33</v>
       </c>
@@ -1058,8 +1133,11 @@
       <c r="F27" s="9">
         <v>-4.4985058947346204</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>34</v>
       </c>
@@ -1072,8 +1150,11 @@
       <c r="F28" s="9">
         <v>-4.3527792806324896</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>35</v>
       </c>
@@ -1086,8 +1167,11 @@
       <c r="F29" s="9">
         <v>-6.4096065884504396</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>36</v>
       </c>
@@ -1100,8 +1184,11 @@
       <c r="F30" s="9">
         <v>-3.2281424460339099</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>37</v>
       </c>
@@ -1114,8 +1201,11 @@
       <c r="F31" s="9">
         <v>-4.1592296624701603</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>38</v>
       </c>
@@ -1128,8 +1218,11 @@
       <c r="F32" s="9">
         <v>-4.1592296624701603</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>39</v>
       </c>
@@ -1142,8 +1235,11 @@
       <c r="F33" s="9">
         <v>-5.48523026537109</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>40</v>
       </c>
@@ -1156,8 +1252,11 @@
       <c r="F34" s="9">
         <v>-2.4773236550737399</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>41</v>
       </c>
@@ -1170,8 +1269,11 @@
       <c r="F35" s="9">
         <v>-2.6514341830962098</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>42</v>
       </c>
@@ -1184,8 +1286,11 @@
       <c r="F36" s="9">
         <v>-3.75341590244282</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>43</v>
       </c>
@@ -1198,8 +1303,11 @@
       <c r="F37" s="9">
         <v>-3.75341590244282</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>44</v>
       </c>
@@ -1212,8 +1320,11 @@
       <c r="F38" s="9">
         <v>-3.5440174126561299</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>45</v>
       </c>
@@ -1226,8 +1337,11 @@
       <c r="F39" s="9">
         <v>-3.6169240619381702</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>46</v>
       </c>
@@ -1240,8 +1354,11 @@
       <c r="F40" s="9">
         <v>-3.5626028930532501</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>47</v>
       </c>
@@ -1254,8 +1371,11 @@
       <c r="F41" s="9">
         <v>-4.0594889603291797</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>48</v>
       </c>
@@ -1268,8 +1388,11 @@
       <c r="F42" s="9">
         <v>-4.7678508038686802</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>49</v>
       </c>
@@ -1282,8 +1405,11 @@
       <c r="F43" s="9">
         <v>-4.8466433117839598</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>50</v>
       </c>
@@ -1296,8 +1422,11 @@
       <c r="F44" s="9">
         <v>-3.2264262443426199</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>51</v>
       </c>
@@ -1310,8 +1439,11 @@
       <c r="F45" s="9">
         <v>-4.7466172068298196</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>52</v>
       </c>
@@ -1324,8 +1456,11 @@
       <c r="F46" s="9">
         <v>-4.0625041938576096</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>53</v>
       </c>
@@ -1338,8 +1473,11 @@
       <c r="F47" s="9">
         <v>-4.4526966721335297</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>54</v>
       </c>
@@ -1352,8 +1490,11 @@
       <c r="F48" s="9">
         <v>-4.4526966721335297</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>55</v>
       </c>
@@ -1366,8 +1507,11 @@
       <c r="F49" s="9">
         <v>-4.4526966721335297</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>56</v>
       </c>
@@ -1380,8 +1524,11 @@
       <c r="F50" s="9">
         <v>-4.0388202493699099</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>57</v>
       </c>
@@ -1394,8 +1541,11 @@
       <c r="F51" s="9">
         <v>-2.8710213312089801</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>58</v>
       </c>
@@ -1408,8 +1558,11 @@
       <c r="F52" s="9">
         <v>-2.4049841760016299</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>59</v>
       </c>
@@ -1422,8 +1575,11 @@
       <c r="F53" s="9">
         <v>-2.4049841760016299</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>60</v>
       </c>
@@ -1436,8 +1592,11 @@
       <c r="F54" s="9">
         <v>-4.0502293087689196</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>61</v>
       </c>
@@ -1450,8 +1609,11 @@
       <c r="F55" s="9">
         <v>-4.3280772062789099</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>62</v>
       </c>
@@ -1464,8 +1626,11 @@
       <c r="F56" s="9">
         <v>-4.2832658439550499</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>63</v>
       </c>
@@ -1477,6 +1642,9 @@
       </c>
       <c r="F57" s="9">
         <v>-4.3092984105373002</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Data/MaplyDataTemplate.xlsx
+++ b/Data/MaplyDataTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\University\Year 3\CS310\CS310Project\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\Uni\3rd Year Project\CS310Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E49245-9108-44ED-AE31-CD2E959B2503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355FACFF-D1C0-4E92-AF1E-6F326DF50E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="4410" windowWidth="28800" windowHeight="15555" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="17544" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -650,23 +650,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G57" activeCellId="14" sqref="G5 G8 G7 G9 G11 G12:G14 G16:G21 G23:G24 G25:G26 G28:G32 G34:G41 G43:G44 G47:G52 G54:G55 G57"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="97.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="97.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -693,7 +693,7 @@
       </c>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
@@ -708,11 +708,11 @@
         <v>-4.0153845917278499</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
@@ -726,10 +726,10 @@
         <v>-5.3432396000000004</v>
       </c>
       <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
@@ -743,10 +743,10 @@
         <v>-2.49688</v>
       </c>
       <c r="G4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
@@ -760,10 +760,10 @@
         <v>-5.2130074000000004</v>
       </c>
       <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
@@ -777,10 +777,10 @@
         <v>-4.7707430000000004</v>
       </c>
       <c r="G6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
@@ -794,10 +794,10 @@
         <v>-4.82109216958363</v>
       </c>
       <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
@@ -811,10 +811,10 @@
         <v>-4.3346808661924303</v>
       </c>
       <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>15</v>
       </c>
@@ -828,10 +828,10 @@
         <v>-4.6954648904421203</v>
       </c>
       <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>16</v>
       </c>
@@ -845,10 +845,10 @@
         <v>-4.0361392778064902</v>
       </c>
       <c r="G10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>17</v>
       </c>
@@ -862,10 +862,10 @@
         <v>-3.7679243751494602</v>
       </c>
       <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>18</v>
       </c>
@@ -879,10 +879,10 @@
         <v>-3.7679243751494602</v>
       </c>
       <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>19</v>
       </c>
@@ -896,10 +896,10 @@
         <v>-3.2165872412797998</v>
       </c>
       <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>20</v>
       </c>
@@ -913,10 +913,10 @@
         <v>-3.5466814656824601</v>
       </c>
       <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>21</v>
       </c>
@@ -930,10 +930,10 @@
         <v>-5.5886981217063996</v>
       </c>
       <c r="G15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>22</v>
       </c>
@@ -947,10 +947,10 @@
         <v>-4.3681534310068502</v>
       </c>
       <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>23</v>
       </c>
@@ -964,10 +964,10 @@
         <v>-3.5992929982061699</v>
       </c>
       <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>24</v>
       </c>
@@ -981,10 +981,10 @@
         <v>-3.5992929982061699</v>
       </c>
       <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>25</v>
       </c>
@@ -998,10 +998,10 @@
         <v>-2.9605749569700301</v>
       </c>
       <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>26</v>
       </c>
@@ -1015,10 +1015,10 @@
         <v>-3.5992929982061699</v>
       </c>
       <c r="G20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>27</v>
       </c>
@@ -1032,10 +1032,10 @@
         <v>-4.9514332137722397</v>
       </c>
       <c r="G21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>28</v>
       </c>
@@ -1049,10 +1049,10 @@
         <v>-5.6257169180013298</v>
       </c>
       <c r="G22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>29</v>
       </c>
@@ -1066,10 +1066,10 @@
         <v>-5.28094768528518</v>
       </c>
       <c r="G23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>30</v>
       </c>
@@ -1083,10 +1083,10 @@
         <v>-4.80103988897101</v>
       </c>
       <c r="G24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>31</v>
       </c>
@@ -1100,10 +1100,10 @@
         <v>-2.5249960222373802</v>
       </c>
       <c r="G25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>32</v>
       </c>
@@ -1117,10 +1117,10 @@
         <v>-3.6615459851750698</v>
       </c>
       <c r="G26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>33</v>
       </c>
@@ -1134,10 +1134,10 @@
         <v>-4.4985058947346204</v>
       </c>
       <c r="G27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>34</v>
       </c>
@@ -1151,10 +1151,10 @@
         <v>-4.3527792806324896</v>
       </c>
       <c r="G28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>35</v>
       </c>
@@ -1168,10 +1168,10 @@
         <v>-6.4096065884504396</v>
       </c>
       <c r="G29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>36</v>
       </c>
@@ -1185,10 +1185,10 @@
         <v>-3.2281424460339099</v>
       </c>
       <c r="G30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>37</v>
       </c>
@@ -1202,10 +1202,10 @@
         <v>-4.1592296624701603</v>
       </c>
       <c r="G31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>38</v>
       </c>
@@ -1219,10 +1219,10 @@
         <v>-4.1592296624701603</v>
       </c>
       <c r="G32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>39</v>
       </c>
@@ -1236,10 +1236,10 @@
         <v>-5.48523026537109</v>
       </c>
       <c r="G33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>40</v>
       </c>
@@ -1253,10 +1253,10 @@
         <v>-2.4773236550737399</v>
       </c>
       <c r="G34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>41</v>
       </c>
@@ -1270,10 +1270,10 @@
         <v>-2.6514341830962098</v>
       </c>
       <c r="G35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>42</v>
       </c>
@@ -1287,10 +1287,10 @@
         <v>-3.75341590244282</v>
       </c>
       <c r="G36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>43</v>
       </c>
@@ -1304,10 +1304,10 @@
         <v>-3.75341590244282</v>
       </c>
       <c r="G37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>44</v>
       </c>
@@ -1321,10 +1321,10 @@
         <v>-3.5440174126561299</v>
       </c>
       <c r="G38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>45</v>
       </c>
@@ -1338,10 +1338,10 @@
         <v>-3.6169240619381702</v>
       </c>
       <c r="G39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>46</v>
       </c>
@@ -1355,10 +1355,10 @@
         <v>-3.5626028930532501</v>
       </c>
       <c r="G40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>47</v>
       </c>
@@ -1372,10 +1372,10 @@
         <v>-4.0594889603291797</v>
       </c>
       <c r="G41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>48</v>
       </c>
@@ -1389,10 +1389,10 @@
         <v>-4.7678508038686802</v>
       </c>
       <c r="G42">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>49</v>
       </c>
@@ -1406,10 +1406,10 @@
         <v>-4.8466433117839598</v>
       </c>
       <c r="G43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>50</v>
       </c>
@@ -1423,10 +1423,10 @@
         <v>-3.2264262443426199</v>
       </c>
       <c r="G44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>51</v>
       </c>
@@ -1440,10 +1440,10 @@
         <v>-4.7466172068298196</v>
       </c>
       <c r="G45">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>52</v>
       </c>
@@ -1457,10 +1457,10 @@
         <v>-4.0625041938576096</v>
       </c>
       <c r="G46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>53</v>
       </c>
@@ -1474,10 +1474,10 @@
         <v>-4.4526966721335297</v>
       </c>
       <c r="G47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>54</v>
       </c>
@@ -1491,10 +1491,10 @@
         <v>-4.4526966721335297</v>
       </c>
       <c r="G48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>55</v>
       </c>
@@ -1508,10 +1508,10 @@
         <v>-4.4526966721335297</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>56</v>
       </c>
@@ -1525,10 +1525,10 @@
         <v>-4.0388202493699099</v>
       </c>
       <c r="G50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>57</v>
       </c>
@@ -1542,10 +1542,10 @@
         <v>-2.8710213312089801</v>
       </c>
       <c r="G51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>58</v>
       </c>
@@ -1559,10 +1559,10 @@
         <v>-2.4049841760016299</v>
       </c>
       <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>59</v>
       </c>
@@ -1576,10 +1576,10 @@
         <v>-2.4049841760016299</v>
       </c>
       <c r="G53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>60</v>
       </c>
@@ -1593,10 +1593,10 @@
         <v>-4.0502293087689196</v>
       </c>
       <c r="G54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>61</v>
       </c>
@@ -1610,10 +1610,10 @@
         <v>-4.3280772062789099</v>
       </c>
       <c r="G55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>62</v>
       </c>
@@ -1627,10 +1627,10 @@
         <v>-4.2832658439550499</v>
       </c>
       <c r="G56">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>63</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>-4.3092984105373002</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
